--- a/gds/amadeus/template/F_Amadeus Property creation.xlsx
+++ b/gds/amadeus/template/F_Amadeus Property creation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSANGKARN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSANGKARN\bodytaylor\TARSautomation\gds\amadeus\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E658F5-1849-46F5-9B65-C8759EDD60B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A423095-7D5E-4645-96C0-FD8C2AFDD9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Currency code (3-A)</t>
   </si>
@@ -69,13 +69,115 @@
   </si>
   <si>
     <t>State code - Only AR, AU, BR, CA, US, IN (2-A)</t>
+  </si>
+  <si>
+    <t>RTRUHSTR</t>
+  </si>
+  <si>
+    <t>NOVOTEL RIYADH SAHAFA</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>13321 OLAYA STREET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS SAHAFA DISTRICT RIYADH, </t>
+  </si>
+  <si>
+    <t>RIYADH</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>(966) 0</t>
+  </si>
+  <si>
+    <t>SLDOHSWO</t>
+  </si>
+  <si>
+    <t>SWISSOTEL CORNICHE PARK TOWERS</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Corniche Park Towers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bay, </t>
+  </si>
+  <si>
+    <t>DOHA</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>(974) 0</t>
+  </si>
+  <si>
+    <t>RTISTSIS</t>
+  </si>
+  <si>
+    <t>IBIS ISTANBUL SISLI</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Abide-i Hurriyet Caddesi</t>
+  </si>
+  <si>
+    <t>No 179, Sisli</t>
+  </si>
+  <si>
+    <t>ISTANBUL</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>(90) 212/2193640</t>
+  </si>
+  <si>
+    <t>ENTURHYD</t>
+  </si>
+  <si>
+    <t>HYDE BODRUM</t>
+  </si>
+  <si>
+    <t>Torba District 3117 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nbr:11, </t>
+  </si>
+  <si>
+    <t>BODRUM</t>
+  </si>
+  <si>
+    <t>(90) 2525020020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,13 +201,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Amadeus Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -136,11 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,10 +650,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -581,77 +674,207 @@
     <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="25.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="25.5">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>34381</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>48400</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -664,6 +887,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005B2DC02AA416634F938D2A04BA6FEA0B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21a569c1016140233d518ecc0c58e3ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22abcd86-41e4-4e7b-a58e-c6514a23eb21" xmlns:ns4="4e6f553d-a5bc-4ea8-b571-5cdc77624ad0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf6de0b2cbccb6643493b0690e3e4e7c" ns3:_="" ns4:_="">
     <xsd:import namespace="22abcd86-41e4-4e7b-a58e-c6514a23eb21"/>
@@ -872,12 +1101,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -888,6 +1111,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199027D4-C153-4A95-A880-FEAF6FFE1B4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="22abcd86-41e4-4e7b-a58e-c6514a23eb21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4e6f553d-a5bc-4ea8-b571-5cdc77624ad0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAE5E7-91D2-4343-8BA9-D957E289EC41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -906,23 +1146,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199027D4-C153-4A95-A880-FEAF6FFE1B4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="22abcd86-41e4-4e7b-a58e-c6514a23eb21"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4e6f553d-a5bc-4ea8-b571-5cdc77624ad0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F90BD0-FB06-4866-8A67-BEDB5483B8CF}">
   <ds:schemaRefs>

--- a/gds/amadeus/template/F_Amadeus Property creation.xlsx
+++ b/gds/amadeus/template/F_Amadeus Property creation.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSANGKARN\bodytaylor\TARSautomation\gds\amadeus\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSANGKARN\bodytaylor\TARSautomation\gds\amadeus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A423095-7D5E-4645-96C0-FD8C2AFDD9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2928F09-4840-4734-B765-D9D2DC43AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property creation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Currency code (3-A)</t>
   </si>
@@ -69,108 +82,6 @@
   </si>
   <si>
     <t>State code - Only AR, AU, BR, CA, US, IN (2-A)</t>
-  </si>
-  <si>
-    <t>RTRUHSTR</t>
-  </si>
-  <si>
-    <t>NOVOTEL RIYADH SAHAFA</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>13321 OLAYA STREET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS SAHAFA DISTRICT RIYADH, </t>
-  </si>
-  <si>
-    <t>RIYADH</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>(966) 0</t>
-  </si>
-  <si>
-    <t>SLDOHSWO</t>
-  </si>
-  <si>
-    <t>SWISSOTEL CORNICHE PARK TOWERS</t>
-  </si>
-  <si>
-    <t>QAR</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Corniche Park Towers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bay, </t>
-  </si>
-  <si>
-    <t>DOHA</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>(974) 0</t>
-  </si>
-  <si>
-    <t>RTISTSIS</t>
-  </si>
-  <si>
-    <t>IBIS ISTANBUL SISLI</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Abide-i Hurriyet Caddesi</t>
-  </si>
-  <si>
-    <t>No 179, Sisli</t>
-  </si>
-  <si>
-    <t>ISTANBUL</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>(90) 212/2193640</t>
-  </si>
-  <si>
-    <t>ENTURHYD</t>
-  </si>
-  <si>
-    <t>HYDE BODRUM</t>
-  </si>
-  <si>
-    <t>Torba District 3117 Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nbr:11, </t>
-  </si>
-  <si>
-    <t>BODRUM</t>
-  </si>
-  <si>
-    <t>(90) 2525020020</t>
   </si>
 </sst>
 </file>
@@ -185,11 +96,13 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -650,10 +563,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -730,152 +643,6 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4">
-        <v>34381</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5">
-        <v>48400</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -887,9 +654,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,27 +872,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199027D4-C153-4A95-A880-FEAF6FFE1B4C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F90BD0-FB06-4866-8A67-BEDB5483B8CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="22abcd86-41e4-4e7b-a58e-c6514a23eb21"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4e6f553d-a5bc-4ea8-b571-5cdc77624ad0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1147,9 +905,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F90BD0-FB06-4866-8A67-BEDB5483B8CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199027D4-C153-4A95-A880-FEAF6FFE1B4C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="22abcd86-41e4-4e7b-a58e-c6514a23eb21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4e6f553d-a5bc-4ea8-b571-5cdc77624ad0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>